--- a/MIT_SOLVE_downloadable_excel_files/geo_match.xlsx
+++ b/MIT_SOLVE_downloadable_excel_files/geo_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>AIR-INK: Air-Pollution to ink</t>
   </si>
@@ -233,78 +233,6 @@
   </si>
   <si>
     <t>Yum! Brands</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,US and Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,South Asia 2,US and Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,US and Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,Latin America and the Caribbean</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,South Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,Europe and Central Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,Europe and Central Asia 1,Sub-Saharan Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,Sub-Saharan Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,Latin America and the Caribbean 2,Sub-Saharan Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,Sub-Saharan Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,US and Canada 3,Europe and Central Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,US and Canada 2,Latin America and the Caribbean 3,Europe and Central Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,Latin America and the Caribbean</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,US and Canada 2,Latin America and the Caribbean</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,Europe and Central Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,Oceania</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,East and Southeast Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,US and Canada 4,East and Southeast Asia 2,Europe and Central Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4,East and Southeast Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,US and Canada 2,Europe and Central Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,South Asia 1,US and Canada 4,East and Southeast Asia 2,Europe and Central Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,US and Canada 4,East and Southeast Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,South Asia 1,US and Canada 2,Europe and Central Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,Middle East and North Africa</t>
   </si>
 </sst>
 </file>
@@ -773,17 +701,17 @@
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>75</v>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -794,11 +722,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" t="s">
-        <v>78</v>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -806,8 +734,8 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>83</v>
+      <c r="M2">
+        <v>2</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -815,20 +743,20 @@
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2" t="s">
-        <v>89</v>
+      <c r="P2">
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
-        <v>89</v>
+      <c r="R2">
+        <v>1</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2" t="s">
-        <v>90</v>
+      <c r="T2">
+        <v>3</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -836,20 +764,20 @@
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>75</v>
+      <c r="W2">
+        <v>1</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
-      <c r="Y2" t="s">
-        <v>75</v>
+      <c r="Y2">
+        <v>1</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
-      <c r="AA2" t="s">
-        <v>75</v>
+      <c r="AA2">
+        <v>1</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -860,8 +788,8 @@
       <c r="AD2">
         <v>0</v>
       </c>
-      <c r="AE2" t="s">
-        <v>89</v>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -874,17 +802,17 @@
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -895,20 +823,20 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" t="s">
-        <v>81</v>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>84</v>
+      <c r="M3">
+        <v>3</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -916,59 +844,59 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" t="s">
-        <v>89</v>
+      <c r="P3">
+        <v>1</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3" t="s">
-        <v>89</v>
-      </c>
-      <c r="S3" t="s">
-        <v>80</v>
-      </c>
-      <c r="T3" t="s">
-        <v>90</v>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3" t="s">
-        <v>76</v>
-      </c>
-      <c r="W3" t="s">
-        <v>75</v>
-      </c>
-      <c r="X3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>80</v>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -981,8 +909,8 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>76</v>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1002,14 +930,14 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>76</v>
+      <c r="K4">
+        <v>1</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>85</v>
+      <c r="M4">
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1035,26 +963,26 @@
       <c r="U4">
         <v>0</v>
       </c>
-      <c r="V4" t="s">
-        <v>76</v>
+      <c r="V4">
+        <v>1</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="X4" t="s">
-        <v>76</v>
+      <c r="X4">
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
-      <c r="Z4" t="s">
-        <v>76</v>
+      <c r="Z4">
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
-      <c r="AB4" t="s">
-        <v>76</v>
+      <c r="AB4">
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1065,8 +993,8 @@
       <c r="AE4">
         <v>0</v>
       </c>
-      <c r="AF4" t="s">
-        <v>76</v>
+      <c r="AF4">
+        <v>1</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1076,17 +1004,17 @@
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>75</v>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1097,8 +1025,8 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
-        <v>75</v>
+      <c r="I5">
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1109,8 +1037,8 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>75</v>
+      <c r="M5">
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1130,8 +1058,8 @@
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5" t="s">
-        <v>75</v>
+      <c r="T5">
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1139,20 +1067,20 @@
       <c r="V5">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>75</v>
+      <c r="W5">
+        <v>1</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
-      <c r="Y5" t="s">
-        <v>75</v>
+      <c r="Y5">
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
-      <c r="AA5" t="s">
-        <v>75</v>
+      <c r="AA5">
+        <v>1</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1177,17 +1105,17 @@
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>75</v>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1198,8 +1126,8 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
-        <v>75</v>
+      <c r="I6">
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1210,8 +1138,8 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>75</v>
+      <c r="M6">
+        <v>1</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1231,8 +1159,8 @@
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6" t="s">
-        <v>75</v>
+      <c r="T6">
+        <v>1</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1240,20 +1168,20 @@
       <c r="V6">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>75</v>
+      <c r="W6">
+        <v>1</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
-      <c r="Y6" t="s">
-        <v>75</v>
+      <c r="Y6">
+        <v>1</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
-      <c r="AA6" t="s">
-        <v>75</v>
+      <c r="AA6">
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1278,17 +1206,17 @@
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>75</v>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1299,8 +1227,8 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
-        <v>75</v>
+      <c r="I7">
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1311,8 +1239,8 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>75</v>
+      <c r="M7">
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1332,8 +1260,8 @@
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7" t="s">
-        <v>75</v>
+      <c r="T7">
+        <v>1</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1341,20 +1269,20 @@
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>75</v>
+      <c r="W7">
+        <v>1</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
-      <c r="Y7" t="s">
-        <v>75</v>
+      <c r="Y7">
+        <v>1</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
-      <c r="AA7" t="s">
-        <v>75</v>
+      <c r="AA7">
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1379,17 +1307,17 @@
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>75</v>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1400,8 +1328,8 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
-        <v>75</v>
+      <c r="I8">
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1412,8 +1340,8 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>75</v>
+      <c r="M8">
+        <v>1</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1433,8 +1361,8 @@
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8" t="s">
-        <v>75</v>
+      <c r="T8">
+        <v>1</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1442,20 +1370,20 @@
       <c r="V8">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>75</v>
+      <c r="W8">
+        <v>1</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
-      <c r="Y8" t="s">
-        <v>75</v>
+      <c r="Y8">
+        <v>1</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
-      <c r="AA8" t="s">
-        <v>75</v>
+      <c r="AA8">
+        <v>1</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1480,17 +1408,17 @@
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>75</v>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1501,8 +1429,8 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
-        <v>75</v>
+      <c r="I9">
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1513,8 +1441,8 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>75</v>
+      <c r="M9">
+        <v>1</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1534,8 +1462,8 @@
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9" t="s">
-        <v>75</v>
+      <c r="T9">
+        <v>1</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1543,20 +1471,20 @@
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>75</v>
+      <c r="W9">
+        <v>1</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
-      <c r="Y9" t="s">
-        <v>75</v>
+      <c r="Y9">
+        <v>1</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
-      <c r="AA9" t="s">
-        <v>75</v>
+      <c r="AA9">
+        <v>1</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1623,20 +1551,20 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" t="s">
-        <v>89</v>
+      <c r="P10">
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10" t="s">
-        <v>89</v>
+      <c r="R10">
+        <v>1</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10" t="s">
-        <v>91</v>
+      <c r="T10">
+        <v>1</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1668,8 +1596,8 @@
       <c r="AD10">
         <v>0</v>
       </c>
-      <c r="AE10" t="s">
-        <v>89</v>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1682,17 +1610,17 @@
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>75</v>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>75</v>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1703,20 +1631,20 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" t="s">
-        <v>82</v>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>75</v>
+      <c r="M11">
+        <v>1</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1733,11 +1661,11 @@
       <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11" t="s">
-        <v>80</v>
-      </c>
-      <c r="T11" t="s">
-        <v>75</v>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1745,20 +1673,20 @@
       <c r="V11">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>75</v>
+      <c r="W11">
+        <v>1</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
-      <c r="Y11" t="s">
-        <v>75</v>
+      <c r="Y11">
+        <v>1</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
-      <c r="AA11" t="s">
-        <v>75</v>
+      <c r="AA11">
+        <v>1</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1775,8 +1703,8 @@
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11" t="s">
-        <v>80</v>
+      <c r="AG11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -1807,11 +1735,11 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" t="s">
-        <v>82</v>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1834,8 +1762,8 @@
       <c r="R12">
         <v>0</v>
       </c>
-      <c r="S12" t="s">
-        <v>80</v>
+      <c r="S12">
+        <v>1</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -1876,25 +1804,25 @@
       <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AG12" t="s">
-        <v>80</v>
+      <c r="AG12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>75</v>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1905,8 +1833,8 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
-        <v>75</v>
+      <c r="I13">
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1917,8 +1845,8 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" t="s">
-        <v>75</v>
+      <c r="M13">
+        <v>1</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1938,8 +1866,8 @@
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="T13" t="s">
-        <v>75</v>
+      <c r="T13">
+        <v>1</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -1947,20 +1875,20 @@
       <c r="V13">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>75</v>
+      <c r="W13">
+        <v>1</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
-      <c r="Y13" t="s">
-        <v>75</v>
+      <c r="Y13">
+        <v>1</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
-      <c r="AA13" t="s">
-        <v>75</v>
+      <c r="AA13">
+        <v>1</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -1985,17 +1913,17 @@
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>75</v>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2006,8 +1934,8 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>75</v>
+      <c r="I14">
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2018,8 +1946,8 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" t="s">
-        <v>75</v>
+      <c r="M14">
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2039,8 +1967,8 @@
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14" t="s">
-        <v>75</v>
+      <c r="T14">
+        <v>1</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -2048,20 +1976,20 @@
       <c r="V14">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>75</v>
+      <c r="W14">
+        <v>1</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
-      <c r="Y14" t="s">
-        <v>75</v>
+      <c r="Y14">
+        <v>1</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
-      <c r="AA14" t="s">
-        <v>75</v>
+      <c r="AA14">
+        <v>1</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -2092,8 +2020,8 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>76</v>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2113,14 +2041,14 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" t="s">
-        <v>76</v>
+      <c r="K15">
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>85</v>
+      <c r="M15">
+        <v>1</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2146,26 +2074,26 @@
       <c r="U15">
         <v>0</v>
       </c>
-      <c r="V15" t="s">
-        <v>76</v>
+      <c r="V15">
+        <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
-      <c r="X15" t="s">
-        <v>76</v>
+      <c r="X15">
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
-      <c r="Z15" t="s">
-        <v>76</v>
+      <c r="Z15">
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
-      <c r="AB15" t="s">
-        <v>76</v>
+      <c r="AB15">
+        <v>1</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2176,8 +2104,8 @@
       <c r="AE15">
         <v>0</v>
       </c>
-      <c r="AF15" t="s">
-        <v>76</v>
+      <c r="AF15">
+        <v>1</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -2193,8 +2121,8 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>76</v>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2211,17 +2139,17 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" t="s">
-        <v>81</v>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
-        <v>85</v>
+      <c r="M16">
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2238,8 +2166,8 @@
       <c r="R16">
         <v>0</v>
       </c>
-      <c r="S16" t="s">
-        <v>80</v>
+      <c r="S16">
+        <v>1</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2247,26 +2175,26 @@
       <c r="U16">
         <v>0</v>
       </c>
-      <c r="V16" t="s">
-        <v>76</v>
+      <c r="V16">
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
-      <c r="X16" t="s">
-        <v>76</v>
+      <c r="X16">
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
-      <c r="Z16" t="s">
-        <v>76</v>
+      <c r="Z16">
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
-      <c r="AB16" t="s">
-        <v>76</v>
+      <c r="AB16">
+        <v>1</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2277,28 +2205,28 @@
       <c r="AE16">
         <v>0</v>
       </c>
-      <c r="AF16" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>80</v>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" t="s">
-        <v>75</v>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>75</v>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2309,11 +2237,11 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" t="s">
-        <v>78</v>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2321,8 +2249,8 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
-        <v>83</v>
+      <c r="M17">
+        <v>2</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2342,8 +2270,8 @@
       <c r="S17">
         <v>0</v>
       </c>
-      <c r="T17" t="s">
-        <v>92</v>
+      <c r="T17">
+        <v>2</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -2351,20 +2279,20 @@
       <c r="V17">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>75</v>
+      <c r="W17">
+        <v>1</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
-      <c r="Y17" t="s">
-        <v>75</v>
+      <c r="Y17">
+        <v>1</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
-      <c r="AA17" t="s">
-        <v>75</v>
+      <c r="AA17">
+        <v>1</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -2389,17 +2317,17 @@
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" t="s">
-        <v>75</v>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
-        <v>75</v>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2410,8 +2338,8 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
-        <v>75</v>
+      <c r="I18">
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2422,8 +2350,8 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18" t="s">
-        <v>75</v>
+      <c r="M18">
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2443,8 +2371,8 @@
       <c r="S18">
         <v>0</v>
       </c>
-      <c r="T18" t="s">
-        <v>75</v>
+      <c r="T18">
+        <v>1</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2452,20 +2380,20 @@
       <c r="V18">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>75</v>
+      <c r="W18">
+        <v>1</v>
       </c>
       <c r="X18">
         <v>0</v>
       </c>
-      <c r="Y18" t="s">
-        <v>75</v>
+      <c r="Y18">
+        <v>1</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
-      <c r="AA18" t="s">
-        <v>75</v>
+      <c r="AA18">
+        <v>1</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -2490,17 +2418,17 @@
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" t="s">
-        <v>75</v>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2511,20 +2439,20 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" t="s">
-        <v>81</v>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
-        <v>86</v>
+      <c r="M19">
+        <v>2</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2541,50 +2469,50 @@
       <c r="R19">
         <v>0</v>
       </c>
-      <c r="S19" t="s">
-        <v>80</v>
-      </c>
-      <c r="T19" t="s">
-        <v>75</v>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
-      <c r="V19" t="s">
-        <v>76</v>
-      </c>
-      <c r="W19" t="s">
-        <v>75</v>
-      </c>
-      <c r="X19" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>96</v>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
-      <c r="AF19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>80</v>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -2615,8 +2543,8 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" t="s">
-        <v>78</v>
+      <c r="J20">
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2624,8 +2552,8 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" t="s">
-        <v>87</v>
+      <c r="M20">
+        <v>1</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2645,8 +2573,8 @@
       <c r="S20">
         <v>0</v>
       </c>
-      <c r="T20" t="s">
-        <v>78</v>
+      <c r="T20">
+        <v>1</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -2698,8 +2626,8 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>76</v>
+      <c r="D21">
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2716,17 +2644,17 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21" t="s">
-        <v>80</v>
-      </c>
-      <c r="K21" t="s">
-        <v>81</v>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" t="s">
-        <v>85</v>
+      <c r="M21">
+        <v>1</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2734,44 +2662,44 @@
       <c r="O21">
         <v>0</v>
       </c>
-      <c r="P21" t="s">
-        <v>89</v>
+      <c r="P21">
+        <v>1</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-      <c r="R21" t="s">
-        <v>89</v>
-      </c>
-      <c r="S21" t="s">
-        <v>80</v>
-      </c>
-      <c r="T21" t="s">
-        <v>91</v>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
-      <c r="V21" t="s">
-        <v>76</v>
+      <c r="V21">
+        <v>1</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
-      <c r="X21" t="s">
-        <v>76</v>
+      <c r="X21">
+        <v>1</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
-      <c r="Z21" t="s">
-        <v>76</v>
+      <c r="Z21">
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
-      <c r="AB21" t="s">
-        <v>76</v>
+      <c r="AB21">
+        <v>1</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -2779,31 +2707,31 @@
       <c r="AD21">
         <v>0</v>
       </c>
-      <c r="AE21" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>80</v>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" t="s">
-        <v>75</v>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2814,20 +2742,20 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>75</v>
+      <c r="I22">
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22" t="s">
-        <v>76</v>
+      <c r="K22">
+        <v>1</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" t="s">
-        <v>86</v>
+      <c r="M22">
+        <v>2</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2847,32 +2775,32 @@
       <c r="S22">
         <v>0</v>
       </c>
-      <c r="T22" t="s">
-        <v>75</v>
+      <c r="T22">
+        <v>1</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
-      <c r="V22" t="s">
-        <v>76</v>
-      </c>
-      <c r="W22" t="s">
-        <v>75</v>
-      </c>
-      <c r="X22" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>76</v>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -2883,8 +2811,8 @@
       <c r="AE22">
         <v>0</v>
       </c>
-      <c r="AF22" t="s">
-        <v>76</v>
+      <c r="AF22">
+        <v>1</v>
       </c>
       <c r="AG22">
         <v>0</v>
@@ -2894,118 +2822,118 @@
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J23" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" t="s">
-        <v>77</v>
-      </c>
-      <c r="M23" t="s">
-        <v>84</v>
-      </c>
-      <c r="N23" t="s">
-        <v>88</v>
-      </c>
-      <c r="O23" t="s">
-        <v>77</v>
-      </c>
-      <c r="P23" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>77</v>
-      </c>
-      <c r="R23" t="s">
-        <v>89</v>
-      </c>
-      <c r="S23" t="s">
-        <v>80</v>
-      </c>
-      <c r="T23" t="s">
-        <v>93</v>
-      </c>
-      <c r="U23" t="s">
-        <v>77</v>
-      </c>
-      <c r="V23" t="s">
-        <v>76</v>
-      </c>
-      <c r="W23" t="s">
-        <v>75</v>
-      </c>
-      <c r="X23" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>80</v>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>4</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>75</v>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3016,8 +2944,8 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
-        <v>75</v>
+      <c r="I24">
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3028,8 +2956,8 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" t="s">
-        <v>75</v>
+      <c r="M24">
+        <v>1</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -3049,8 +2977,8 @@
       <c r="S24">
         <v>0</v>
       </c>
-      <c r="T24" t="s">
-        <v>75</v>
+      <c r="T24">
+        <v>1</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -3058,29 +2986,29 @@
       <c r="V24">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>75</v>
+      <c r="W24">
+        <v>1</v>
       </c>
       <c r="X24">
         <v>0</v>
       </c>
-      <c r="Y24" t="s">
-        <v>75</v>
+      <c r="Y24">
+        <v>1</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
-      <c r="AA24" t="s">
-        <v>75</v>
+      <c r="AA24">
+        <v>1</v>
       </c>
       <c r="AB24">
         <v>0</v>
       </c>
-      <c r="AC24" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>96</v>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -3096,101 +3024,101 @@
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" t="s">
-        <v>75</v>
-      </c>
-      <c r="J25" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25" t="s">
-        <v>77</v>
-      </c>
-      <c r="M25" t="s">
-        <v>84</v>
-      </c>
-      <c r="N25" t="s">
-        <v>88</v>
-      </c>
-      <c r="O25" t="s">
-        <v>77</v>
-      </c>
-      <c r="P25" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>77</v>
-      </c>
-      <c r="R25" t="s">
-        <v>89</v>
-      </c>
-      <c r="S25" t="s">
-        <v>80</v>
-      </c>
-      <c r="T25" t="s">
-        <v>93</v>
-      </c>
-      <c r="U25" t="s">
-        <v>77</v>
-      </c>
-      <c r="V25" t="s">
-        <v>76</v>
-      </c>
-      <c r="W25" t="s">
-        <v>75</v>
-      </c>
-      <c r="X25" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>80</v>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>4</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -3203,8 +3131,8 @@
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>76</v>
+      <c r="D26">
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3221,17 +3149,17 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26" t="s">
-        <v>80</v>
-      </c>
-      <c r="K26" t="s">
-        <v>81</v>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26" t="s">
-        <v>85</v>
+      <c r="M26">
+        <v>1</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -3248,8 +3176,8 @@
       <c r="R26">
         <v>0</v>
       </c>
-      <c r="S26" t="s">
-        <v>80</v>
+      <c r="S26">
+        <v>1</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -3257,26 +3185,26 @@
       <c r="U26">
         <v>0</v>
       </c>
-      <c r="V26" t="s">
-        <v>76</v>
+      <c r="V26">
+        <v>1</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
-      <c r="X26" t="s">
-        <v>76</v>
+      <c r="X26">
+        <v>1</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
-      <c r="Z26" t="s">
-        <v>76</v>
+      <c r="Z26">
+        <v>1</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
-      <c r="AB26" t="s">
-        <v>76</v>
+      <c r="AB26">
+        <v>1</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3287,28 +3215,28 @@
       <c r="AE26">
         <v>0</v>
       </c>
-      <c r="AF26" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>80</v>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
-        <v>75</v>
+      <c r="E27">
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3319,11 +3247,11 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" t="s">
-        <v>78</v>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -3331,8 +3259,8 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27" t="s">
-        <v>83</v>
+      <c r="M27">
+        <v>2</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -3352,8 +3280,8 @@
       <c r="S27">
         <v>0</v>
       </c>
-      <c r="T27" t="s">
-        <v>92</v>
+      <c r="T27">
+        <v>2</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -3361,20 +3289,20 @@
       <c r="V27">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>75</v>
+      <c r="W27">
+        <v>1</v>
       </c>
       <c r="X27">
         <v>0</v>
       </c>
-      <c r="Y27" t="s">
-        <v>75</v>
+      <c r="Y27">
+        <v>1</v>
       </c>
       <c r="Z27">
         <v>0</v>
       </c>
-      <c r="AA27" t="s">
-        <v>75</v>
+      <c r="AA27">
+        <v>1</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -3399,17 +3327,17 @@
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" t="s">
-        <v>75</v>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3420,20 +3348,20 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" t="s">
-        <v>75</v>
+      <c r="I28">
+        <v>1</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="K28" t="s">
-        <v>76</v>
+      <c r="K28">
+        <v>1</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" t="s">
-        <v>86</v>
+      <c r="M28">
+        <v>2</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -3441,44 +3369,44 @@
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="P28" t="s">
-        <v>89</v>
+      <c r="P28">
+        <v>1</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
-      <c r="R28" t="s">
-        <v>89</v>
+      <c r="R28">
+        <v>1</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
-      <c r="T28" t="s">
-        <v>94</v>
+      <c r="T28">
+        <v>2</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
-      <c r="V28" t="s">
-        <v>76</v>
-      </c>
-      <c r="W28" t="s">
-        <v>75</v>
-      </c>
-      <c r="X28" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>76</v>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3486,11 +3414,11 @@
       <c r="AD28">
         <v>0</v>
       </c>
-      <c r="AE28" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>76</v>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
       </c>
       <c r="AG28">
         <v>0</v>
@@ -3500,17 +3428,17 @@
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>75</v>
+      <c r="E29">
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3521,11 +3449,11 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" t="s">
-        <v>75</v>
-      </c>
-      <c r="J29" t="s">
-        <v>78</v>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3533,8 +3461,8 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29" t="s">
-        <v>83</v>
+      <c r="M29">
+        <v>2</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -3554,8 +3482,8 @@
       <c r="S29">
         <v>0</v>
       </c>
-      <c r="T29" t="s">
-        <v>92</v>
+      <c r="T29">
+        <v>2</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3563,20 +3491,20 @@
       <c r="V29">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>75</v>
+      <c r="W29">
+        <v>1</v>
       </c>
       <c r="X29">
         <v>0</v>
       </c>
-      <c r="Y29" t="s">
-        <v>75</v>
+      <c r="Y29">
+        <v>1</v>
       </c>
       <c r="Z29">
         <v>0</v>
       </c>
-      <c r="AA29" t="s">
-        <v>75</v>
+      <c r="AA29">
+        <v>1</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -3601,17 +3529,17 @@
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>75</v>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>75</v>
+      <c r="E30">
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3622,8 +3550,8 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" t="s">
-        <v>75</v>
+      <c r="I30">
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3634,8 +3562,8 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30" t="s">
-        <v>75</v>
+      <c r="M30">
+        <v>1</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -3655,8 +3583,8 @@
       <c r="S30">
         <v>0</v>
       </c>
-      <c r="T30" t="s">
-        <v>75</v>
+      <c r="T30">
+        <v>1</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -3664,20 +3592,20 @@
       <c r="V30">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>75</v>
+      <c r="W30">
+        <v>1</v>
       </c>
       <c r="X30">
         <v>0</v>
       </c>
-      <c r="Y30" t="s">
-        <v>75</v>
+      <c r="Y30">
+        <v>1</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
-      <c r="AA30" t="s">
-        <v>75</v>
+      <c r="AA30">
+        <v>1</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -3702,17 +3630,17 @@
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" t="s">
-        <v>75</v>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>75</v>
+      <c r="E31">
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3723,11 +3651,11 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31" t="s">
-        <v>75</v>
-      </c>
-      <c r="J31" t="s">
-        <v>78</v>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3735,8 +3663,8 @@
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31" t="s">
-        <v>83</v>
+      <c r="M31">
+        <v>2</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3744,20 +3672,20 @@
       <c r="O31">
         <v>0</v>
       </c>
-      <c r="P31" t="s">
-        <v>89</v>
+      <c r="P31">
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
-      <c r="R31" t="s">
-        <v>89</v>
+      <c r="R31">
+        <v>1</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
-      <c r="T31" t="s">
-        <v>90</v>
+      <c r="T31">
+        <v>3</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -3765,32 +3693,32 @@
       <c r="V31">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>75</v>
+      <c r="W31">
+        <v>1</v>
       </c>
       <c r="X31">
         <v>0</v>
       </c>
-      <c r="Y31" t="s">
-        <v>75</v>
+      <c r="Y31">
+        <v>1</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
-      <c r="AA31" t="s">
-        <v>75</v>
+      <c r="AA31">
+        <v>1</v>
       </c>
       <c r="AB31">
         <v>0</v>
       </c>
-      <c r="AC31" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>89</v>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3803,53 +3731,53 @@
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" t="s">
-        <v>75</v>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" t="s">
-        <v>77</v>
-      </c>
-      <c r="I32" t="s">
-        <v>75</v>
-      </c>
-      <c r="J32" t="s">
-        <v>78</v>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
-      <c r="L32" t="s">
-        <v>77</v>
-      </c>
-      <c r="M32" t="s">
-        <v>83</v>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
-      <c r="O32" t="s">
-        <v>77</v>
+      <c r="O32">
+        <v>1</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
-      <c r="Q32" t="s">
-        <v>77</v>
+      <c r="Q32">
+        <v>1</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -3857,29 +3785,29 @@
       <c r="S32">
         <v>0</v>
       </c>
-      <c r="T32" t="s">
-        <v>95</v>
-      </c>
-      <c r="U32" t="s">
-        <v>77</v>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>75</v>
+      <c r="W32">
+        <v>1</v>
       </c>
       <c r="X32">
         <v>0</v>
       </c>
-      <c r="Y32" t="s">
-        <v>75</v>
+      <c r="Y32">
+        <v>1</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
-      <c r="AA32" t="s">
-        <v>75</v>
+      <c r="AA32">
+        <v>1</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -3904,17 +3832,17 @@
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>75</v>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" t="s">
-        <v>75</v>
+      <c r="E33">
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3925,8 +3853,8 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33" t="s">
-        <v>75</v>
+      <c r="I33">
+        <v>1</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3937,8 +3865,8 @@
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33" t="s">
-        <v>75</v>
+      <c r="M33">
+        <v>1</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3958,8 +3886,8 @@
       <c r="S33">
         <v>0</v>
       </c>
-      <c r="T33" t="s">
-        <v>75</v>
+      <c r="T33">
+        <v>1</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3967,20 +3895,20 @@
       <c r="V33">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>75</v>
+      <c r="W33">
+        <v>1</v>
       </c>
       <c r="X33">
         <v>0</v>
       </c>
-      <c r="Y33" t="s">
-        <v>75</v>
+      <c r="Y33">
+        <v>1</v>
       </c>
       <c r="Z33">
         <v>0</v>
       </c>
-      <c r="AA33" t="s">
-        <v>75</v>
+      <c r="AA33">
+        <v>1</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -4005,202 +3933,202 @@
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I34" t="s">
-        <v>75</v>
-      </c>
-      <c r="J34" t="s">
-        <v>79</v>
-      </c>
-      <c r="K34" t="s">
-        <v>81</v>
-      </c>
-      <c r="L34" t="s">
-        <v>77</v>
-      </c>
-      <c r="M34" t="s">
-        <v>84</v>
-      </c>
-      <c r="N34" t="s">
-        <v>88</v>
-      </c>
-      <c r="O34" t="s">
-        <v>77</v>
-      </c>
-      <c r="P34" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>77</v>
-      </c>
-      <c r="R34" t="s">
-        <v>89</v>
-      </c>
-      <c r="S34" t="s">
-        <v>80</v>
-      </c>
-      <c r="T34" t="s">
-        <v>93</v>
-      </c>
-      <c r="U34" t="s">
-        <v>77</v>
-      </c>
-      <c r="V34" t="s">
-        <v>76</v>
-      </c>
-      <c r="W34" t="s">
-        <v>75</v>
-      </c>
-      <c r="X34" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>80</v>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>4</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
+      </c>
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>1</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" t="s">
-        <v>77</v>
-      </c>
-      <c r="H35" t="s">
-        <v>77</v>
-      </c>
-      <c r="I35" t="s">
-        <v>75</v>
-      </c>
-      <c r="J35" t="s">
-        <v>79</v>
-      </c>
-      <c r="K35" t="s">
-        <v>81</v>
-      </c>
-      <c r="L35" t="s">
-        <v>77</v>
-      </c>
-      <c r="M35" t="s">
-        <v>84</v>
-      </c>
-      <c r="N35" t="s">
-        <v>88</v>
-      </c>
-      <c r="O35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P35" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>77</v>
-      </c>
-      <c r="R35" t="s">
-        <v>89</v>
-      </c>
-      <c r="S35" t="s">
-        <v>80</v>
-      </c>
-      <c r="T35" t="s">
-        <v>93</v>
-      </c>
-      <c r="U35" t="s">
-        <v>77</v>
-      </c>
-      <c r="V35" t="s">
-        <v>76</v>
-      </c>
-      <c r="W35" t="s">
-        <v>75</v>
-      </c>
-      <c r="X35" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>80</v>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>4</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -4231,17 +4159,17 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36" t="s">
-        <v>79</v>
-      </c>
-      <c r="K36" t="s">
-        <v>82</v>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36" t="s">
-        <v>87</v>
+      <c r="M36">
+        <v>1</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -4258,11 +4186,11 @@
       <c r="R36">
         <v>0</v>
       </c>
-      <c r="S36" t="s">
-        <v>80</v>
-      </c>
-      <c r="T36" t="s">
-        <v>78</v>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -4288,11 +4216,11 @@
       <c r="AB36">
         <v>0</v>
       </c>
-      <c r="AC36" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>96</v>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
       </c>
       <c r="AE36">
         <v>0</v>
@@ -4300,25 +4228,25 @@
       <c r="AF36">
         <v>0</v>
       </c>
-      <c r="AG36" t="s">
-        <v>80</v>
+      <c r="AG36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" t="s">
-        <v>75</v>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -4329,20 +4257,20 @@
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37" t="s">
-        <v>75</v>
-      </c>
-      <c r="J37" t="s">
-        <v>78</v>
-      </c>
-      <c r="K37" t="s">
-        <v>76</v>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37" t="s">
-        <v>84</v>
+      <c r="M37">
+        <v>3</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -4362,32 +4290,32 @@
       <c r="S37">
         <v>0</v>
       </c>
-      <c r="T37" t="s">
-        <v>92</v>
+      <c r="T37">
+        <v>2</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
-      <c r="V37" t="s">
-        <v>76</v>
-      </c>
-      <c r="W37" t="s">
-        <v>75</v>
-      </c>
-      <c r="X37" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>76</v>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -4398,8 +4326,8 @@
       <c r="AE37">
         <v>0</v>
       </c>
-      <c r="AF37" t="s">
-        <v>76</v>
+      <c r="AF37">
+        <v>1</v>
       </c>
       <c r="AG37">
         <v>0</v>
@@ -4409,17 +4337,17 @@
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" t="s">
-        <v>75</v>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" t="s">
-        <v>75</v>
+      <c r="E38">
+        <v>1</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -4430,8 +4358,8 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" t="s">
-        <v>75</v>
+      <c r="I38">
+        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -4442,8 +4370,8 @@
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38" t="s">
-        <v>75</v>
+      <c r="M38">
+        <v>1</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -4463,8 +4391,8 @@
       <c r="S38">
         <v>0</v>
       </c>
-      <c r="T38" t="s">
-        <v>75</v>
+      <c r="T38">
+        <v>1</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -4472,20 +4400,20 @@
       <c r="V38">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>75</v>
+      <c r="W38">
+        <v>1</v>
       </c>
       <c r="X38">
         <v>0</v>
       </c>
-      <c r="Y38" t="s">
-        <v>75</v>
+      <c r="Y38">
+        <v>1</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
-      <c r="AA38" t="s">
-        <v>75</v>
+      <c r="AA38">
+        <v>1</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -4510,17 +4438,17 @@
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" t="s">
-        <v>75</v>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -4531,20 +4459,20 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" t="s">
-        <v>75</v>
+      <c r="I39">
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
-      <c r="K39" t="s">
-        <v>76</v>
+      <c r="K39">
+        <v>1</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
-      <c r="M39" t="s">
-        <v>86</v>
+      <c r="M39">
+        <v>2</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -4552,44 +4480,44 @@
       <c r="O39">
         <v>0</v>
       </c>
-      <c r="P39" t="s">
-        <v>89</v>
+      <c r="P39">
+        <v>1</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
-      <c r="R39" t="s">
-        <v>89</v>
+      <c r="R39">
+        <v>1</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
-      <c r="T39" t="s">
-        <v>94</v>
+      <c r="T39">
+        <v>2</v>
       </c>
       <c r="U39">
         <v>0</v>
       </c>
-      <c r="V39" t="s">
-        <v>76</v>
-      </c>
-      <c r="W39" t="s">
-        <v>75</v>
-      </c>
-      <c r="X39" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>76</v>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39">
+        <v>1</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -4597,11 +4525,11 @@
       <c r="AD39">
         <v>0</v>
       </c>
-      <c r="AE39" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>76</v>
+      <c r="AE39">
+        <v>1</v>
+      </c>
+      <c r="AF39">
+        <v>1</v>
       </c>
       <c r="AG39">
         <v>0</v>
@@ -4611,118 +4539,118 @@
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" t="s">
-        <v>77</v>
-      </c>
-      <c r="H40" t="s">
-        <v>77</v>
-      </c>
-      <c r="I40" t="s">
-        <v>75</v>
-      </c>
-      <c r="J40" t="s">
-        <v>79</v>
-      </c>
-      <c r="K40" t="s">
-        <v>81</v>
-      </c>
-      <c r="L40" t="s">
-        <v>77</v>
-      </c>
-      <c r="M40" t="s">
-        <v>84</v>
-      </c>
-      <c r="N40" t="s">
-        <v>88</v>
-      </c>
-      <c r="O40" t="s">
-        <v>77</v>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
-      <c r="Q40" t="s">
-        <v>77</v>
+      <c r="Q40">
+        <v>1</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
-      <c r="S40" t="s">
-        <v>80</v>
-      </c>
-      <c r="T40" t="s">
-        <v>95</v>
-      </c>
-      <c r="U40" t="s">
-        <v>77</v>
-      </c>
-      <c r="V40" t="s">
-        <v>76</v>
-      </c>
-      <c r="W40" t="s">
-        <v>75</v>
-      </c>
-      <c r="X40" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>96</v>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+      <c r="AC40">
+        <v>1</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
       </c>
       <c r="AE40">
         <v>0</v>
       </c>
-      <c r="AF40" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>80</v>
+      <c r="AF40">
+        <v>1</v>
+      </c>
+      <c r="AG40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" t="s">
-        <v>75</v>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" t="s">
-        <v>75</v>
+      <c r="E41">
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -4733,11 +4661,11 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" t="s">
-        <v>75</v>
-      </c>
-      <c r="J41" t="s">
-        <v>78</v>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4745,8 +4673,8 @@
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41" t="s">
-        <v>83</v>
+      <c r="M41">
+        <v>2</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -4754,20 +4682,20 @@
       <c r="O41">
         <v>0</v>
       </c>
-      <c r="P41" t="s">
-        <v>89</v>
+      <c r="P41">
+        <v>1</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
-      <c r="R41" t="s">
-        <v>89</v>
+      <c r="R41">
+        <v>1</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
-      <c r="T41" t="s">
-        <v>90</v>
+      <c r="T41">
+        <v>3</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -4775,20 +4703,20 @@
       <c r="V41">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>75</v>
+      <c r="W41">
+        <v>1</v>
       </c>
       <c r="X41">
         <v>0</v>
       </c>
-      <c r="Y41" t="s">
-        <v>75</v>
+      <c r="Y41">
+        <v>1</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
-      <c r="AA41" t="s">
-        <v>75</v>
+      <c r="AA41">
+        <v>1</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -4799,8 +4727,8 @@
       <c r="AD41">
         <v>0</v>
       </c>
-      <c r="AE41" t="s">
-        <v>89</v>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
